--- a/a2.xlsx
+++ b/a2.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krystian\Desktop\workspace\MATH3800\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwojc\Desktop\MATH3800\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543A13D5-E56A-4A93-AE66-3DEC451D83AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE6A0F6-3077-4748-8710-66647F146529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="19872" windowHeight="9816" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
   <si>
     <t>x</t>
   </si>
@@ -128,6 +129,15 @@
   </si>
   <si>
     <t>sixth</t>
+  </si>
+  <si>
+    <t>sqrtx</t>
+  </si>
+  <si>
+    <t>log x</t>
+  </si>
+  <si>
+    <t>seventh</t>
   </si>
 </sst>
 </file>
@@ -558,7 +568,2118 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7280000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67BD-4C73-86A9-2A76B767B8A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="520688384"/>
+        <c:axId val="520686744"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="520688384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520686744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="520686744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="520688384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>y vs x</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F065-4960-9940-F094F6FAE956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="590440960"/>
+        <c:axId val="590440632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="590440960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590440632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="590440632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="590440960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>y^2 vs x</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.232899999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46.512400000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123.87690000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>144.96159999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>165.89440000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>185.23209999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>203.0625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C5A0-4AA6-B0C6-11AB3B5CDB39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="506044992"/>
+        <c:axId val="509149824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="506044992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="509149824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="509149824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="506044992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>y vs sqrtx</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4142135623730951</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7320508075688772</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2360679774997898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4494897427831779</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6457513110645907</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8284271247461903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1622776601683795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92E9-4ADF-B53D-A3A29AE39917}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="511974792"/>
+        <c:axId val="511968888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="511974792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511968888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="511968888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="511974792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>y vs logx</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3010299956639812</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47712125471966244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6020599913279624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69897000433601886</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77815125038364363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84509804001425681</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.90308998699194354</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.95424250943932487</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53FA-48D5-BAC4-16A7B09D9E76}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="239775184"/>
+        <c:axId val="239777480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="239775184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239777480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="239777480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="239775184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1114,20 +3235,2600 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>32657</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>81644</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>337457</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>337457</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>48986</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1147,6 +5848,196 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{212DEAD8-4769-4A64-9268-85F1F368EDA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9CF524-3CD3-4A22-AD36-D5A8DF91F45B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00C89A65-5DA5-40AA-B400-C2D3A4F40E67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65D989B2-2B54-4657-AD23-AE7302F1A279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C340F46-58A1-4E0C-86E2-1835F4BA31CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1420,17 +6311,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K16" sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1459,7 +6350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1479,7 +6370,7 @@
         <v>2.16</v>
       </c>
       <c r="G2">
-        <f>$C$12*B2+$C$13</f>
+        <f t="shared" ref="G2:G7" si="0">$C$12*B2+$C$13</f>
         <v>2.1955045871559653</v>
       </c>
       <c r="H2">
@@ -1491,11 +6382,11 @@
         <v>1.2605757091155264E-3</v>
       </c>
       <c r="J2">
-        <f>(C2-$C$9/6)^2</f>
+        <f t="shared" ref="J2:J7" si="1">(C2-$C$9/6)^2</f>
         <v>347.51173611111108</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>3</v>
       </c>
@@ -1503,35 +6394,35 @@
         <v>9.42</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">B3^2</f>
+        <f t="shared" ref="D3:D7" si="2">B3^2</f>
         <v>9</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="1">C3^2</f>
+        <f t="shared" ref="E3:E7" si="3">C3^2</f>
         <v>88.736400000000003</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F7" si="2">B3*C3</f>
+        <f t="shared" ref="F3:F7" si="4">B3*C3</f>
         <v>28.259999999999998</v>
       </c>
       <c r="G3">
-        <f>$C$12*B3+$C$13</f>
+        <f t="shared" si="0"/>
         <v>9.3978899082568823</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" si="3">C3-G3</f>
+        <f t="shared" ref="H3:H7" si="5">C3-G3</f>
         <v>2.2110091743117621E-2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I7" si="4">H3^2</f>
+        <f t="shared" ref="I3:I7" si="6">H3^2</f>
         <v>4.8885615688907798E-4</v>
       </c>
       <c r="J3">
-        <f>(C3-$C$9/6)^2</f>
+        <f t="shared" si="1"/>
         <v>129.5423361111111</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>4</v>
       </c>
@@ -1539,35 +6430,35 @@
         <v>13.05</v>
       </c>
       <c r="D4">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>170.30250000000001</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="4"/>
+        <v>52.2</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E4">
+        <v>12.999082568807339</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="5"/>
+        <v>5.0917431192662121E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="6"/>
+        <v>2.5925847992594817E-3</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="1"/>
-        <v>170.30250000000001</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>52.2</v>
-      </c>
-      <c r="G4">
-        <f>$C$12*B4+$C$13</f>
-        <v>12.999082568807339</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="3"/>
-        <v>5.0917431192662121E-2</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="4"/>
-        <v>2.5925847992594817E-3</v>
-      </c>
-      <c r="J4">
-        <f>(C4-$C$9/6)^2</f>
         <v>60.08833611111109</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>7</v>
       </c>
@@ -1575,35 +6466,35 @@
         <v>23.77</v>
       </c>
       <c r="D5">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>565.01289999999995</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>166.39</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="E5">
+        <v>23.802660550458711</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="5"/>
+        <v>-3.2660550458711413E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="6"/>
+        <v>1.0667115562660342E-3</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="1"/>
-        <v>565.01289999999995</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>166.39</v>
-      </c>
-      <c r="G5">
-        <f>$C$12*B5+$C$13</f>
-        <v>23.802660550458711</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>-3.2660550458711413E-2</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="4"/>
-        <v>1.0667115562660342E-3</v>
-      </c>
-      <c r="J5">
-        <f>(C5-$C$9/6)^2</f>
         <v>8.8110027777777802</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>10</v>
       </c>
@@ -1611,35 +6502,35 @@
         <v>34.58</v>
       </c>
       <c r="D6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>1195.7764</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="4"/>
+        <v>345.79999999999995</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E6">
+        <v>34.60623853211009</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>-2.6238532110092194E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="6"/>
+        <v>6.8846056729233909E-4</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="1"/>
-        <v>1195.7764</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>345.79999999999995</v>
-      </c>
-      <c r="G6">
-        <f>$C$12*B6+$C$13</f>
-        <v>34.60623853211009</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>-2.6238532110092194E-2</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="4"/>
-        <v>6.8846056729233909E-4</v>
-      </c>
-      <c r="J6">
-        <f>(C6-$C$9/6)^2</f>
         <v>189.84246944444442</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>12</v>
       </c>
@@ -1647,76 +6538,76 @@
         <v>41.83</v>
       </c>
       <c r="D7">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>1749.7488999999998</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="4"/>
+        <v>501.96</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-      <c r="E7">
+        <v>41.808623853211003</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="5"/>
+        <v>2.1376146788995243E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>4.5693965154467163E-4</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="1"/>
-        <v>1749.7488999999998</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>501.96</v>
-      </c>
-      <c r="G7">
-        <f>$C$12*B7+$C$13</f>
-        <v>41.808623853211003</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>2.1376146788995243E-2</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="4"/>
-        <v>4.5693965154467163E-4</v>
-      </c>
-      <c r="J7">
-        <f>(C7-$C$9/6)^2</f>
         <v>442.19080277777772</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <f>SUM(B2:B7)</f>
+        <f t="shared" ref="B9:J9" si="7">SUM(B2:B7)</f>
         <v>37</v>
       </c>
       <c r="C9">
-        <f>SUM(C2:C7)</f>
+        <f t="shared" si="7"/>
         <v>124.81</v>
       </c>
       <c r="D9">
-        <f>SUM(D2:D7)</f>
+        <f t="shared" si="7"/>
         <v>319</v>
       </c>
       <c r="E9">
-        <f>SUM(E2:E7)</f>
+        <f t="shared" si="7"/>
         <v>3774.2426999999998</v>
       </c>
       <c r="F9">
-        <f>SUM(F2:F7)</f>
+        <f t="shared" si="7"/>
         <v>1096.77</v>
       </c>
       <c r="G9">
-        <f>SUM(G2:G7)</f>
+        <f t="shared" si="7"/>
         <v>124.81</v>
       </c>
       <c r="H9">
-        <f>SUM(H2:H7)</f>
+        <f t="shared" si="7"/>
         <v>6.2172489379008766E-15</v>
       </c>
       <c r="I9">
-        <f>SUM(I2:I7)</f>
+        <f t="shared" si="7"/>
         <v>6.554128440367131E-3</v>
       </c>
       <c r="J9">
-        <f>SUM(J2:J7)</f>
+        <f t="shared" si="7"/>
         <v>1177.9866833333331</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1724,7 +6615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1740,7 +6631,7 @@
         <v>6.554128440367131E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1756,7 +6647,7 @@
         <v>1177.9866833333331</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1765,7 +6656,7 @@
         <v>1177.9801292048928</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1786,17 +6677,17 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1825,7 +6716,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1864,7 +6755,7 @@
         <v>1.1061198621843054</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1903,7 +6794,7 @@
         <v>0.48801826685982508</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1942,7 +6833,7 @@
         <v>4.3740150627572583E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1981,7 +6872,7 @@
         <v>1.9716657370998494E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -2020,7 +6911,7 @@
         <v>0.48890181675137823</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3.6</v>
       </c>
@@ -2056,48 +6947,48 @@
         <v>1.2539871472459883</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <f>SUM(B2:B7)</f>
+        <f t="shared" ref="B9:J9" si="7">SUM(B2:B7)</f>
         <v>12</v>
       </c>
       <c r="C9">
-        <f>SUM(C2:C7)</f>
+        <f t="shared" si="7"/>
         <v>9.593</v>
       </c>
       <c r="D9">
-        <f>SUM(D2:D7)</f>
+        <f t="shared" si="7"/>
         <v>1.176337327536966</v>
       </c>
       <c r="E9">
-        <f>SUM(E2:E7)</f>
+        <f t="shared" si="7"/>
         <v>30.94</v>
       </c>
       <c r="F9">
-        <f>SUM(F2:F7)</f>
+        <f t="shared" si="7"/>
         <v>7.2105870598680788</v>
       </c>
       <c r="G9">
-        <f>SUM(G2:G7)</f>
+        <f t="shared" si="7"/>
         <v>1.1763373275369664</v>
       </c>
       <c r="H9">
-        <f>SUM(H2:H7)</f>
+        <f t="shared" si="7"/>
         <v>-3.8857805861880479E-16</v>
       </c>
       <c r="I9">
-        <f>SUM(I2:I7)</f>
+        <f t="shared" si="7"/>
         <v>6.5332226548118199E-6</v>
       </c>
       <c r="J9">
-        <f>SUM(J2:J7)</f>
+        <f t="shared" si="7"/>
         <v>3.4004839010400683</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2105,7 +6996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -2121,7 +7012,7 @@
         <v>6.5332226548118199E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2137,7 +7028,7 @@
         <v>3.4004839010400683</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2153,7 +7044,7 @@
         <v>3.4004773678174134</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H16" s="1" t="s">
         <v>16</v>
       </c>
@@ -2164,46 +7055,50 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{047383D1-623C-4772-AB61-F27D74EB4A4E}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2211,7 +7106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2223,7 +7118,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2231,7 +7126,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:D9" si="0">B4-B3</f>
+        <f t="shared" ref="C4:C9" si="0">B4-B3</f>
         <v>15.5</v>
       </c>
       <c r="D4">
@@ -2239,7 +7134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2259,7 +7154,7 @@
         <v>7.083333333333333</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2283,7 +7178,7 @@
         <v>6.0833333333333339</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2311,7 +7206,7 @@
         <v>4.2874999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2343,7 +7238,7 @@
         <v>2.463888888888889</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2374,8 +7269,246 @@
         <f>(G9-G8)/6</f>
         <v>11.100694444444443</v>
       </c>
+      <c r="I9">
+        <f>(H9-H8)/7</f>
+        <v>1.2338293650793648</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7653DD59-8B3B-4F9E-8461-3B594ED05AC1}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B11" si="0">SQRT(A2)</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>LOG(A2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>D2^2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C11" si="1">LOG(A3)</f>
+        <v>0.3010299956639812</v>
+      </c>
+      <c r="D3">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E11" si="2">D3^2</f>
+        <v>18.232899999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.47712125471966244</v>
+      </c>
+      <c r="D4">
+        <v>6.82</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>46.512400000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.6020599913279624</v>
+      </c>
+      <c r="D5">
+        <v>7.6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>57.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2.2360679774997898</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.69897000433601886</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.77815125038364363</v>
+      </c>
+      <c r="D7">
+        <v>11.13</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>123.87690000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2.6457513110645907</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.84509804001425681</v>
+      </c>
+      <c r="D8">
+        <v>12.04</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>144.96159999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.90308998699194354</v>
+      </c>
+      <c r="D9">
+        <v>12.88</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>165.89440000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.95424250943932487</v>
+      </c>
+      <c r="D10">
+        <v>13.61</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>185.23209999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>3.1622776601683795</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>14.25</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>203.0625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/a2.xlsx
+++ b/a2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwojc\Desktop\MATH3800\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE6A0F6-3077-4748-8710-66647F146529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144A13EB-2D19-49A1-ABD3-5AF39EFC5995}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="525" windowWidth="24510" windowHeight="14385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>x</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>seventh</t>
+  </si>
+  <si>
+    <t>minus 1/sqrtx</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1093,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$D$2:$D$11</c:f>
+              <c:f>Sheet4!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1476,7 +1479,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$E$2:$E$11</c:f>
+              <c:f>Sheet4!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1862,7 +1865,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$D$2:$D$11</c:f>
+              <c:f>Sheet4!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2248,7 +2251,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet4!$D$2:$D$11</c:f>
+              <c:f>Sheet4!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2424,6 +2427,396 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="239775184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>y</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> vs -1/sqrtx</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.70710678118654746</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.57735026918962584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.44721359549995793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.40824829046386307</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.3779644730092272</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.35355339059327373</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.31622776601683794</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.61</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AF1-4DB1-98F7-82AF5DA0905A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="508057272"/>
+        <c:axId val="508055632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="508057272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508055632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="508055632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508057272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2719,6 +3112,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5300,6 +5733,522 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6043,6 +6992,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>496660</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>170089</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A589D8BD-B4A6-4492-ABC1-4BB2AA45C0AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7282,15 +8267,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7653DD59-8B3B-4F9E-8461-3B594ED05AC1}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7301,13 +8289,16 @@
         <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7320,14 +8311,18 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <f>-1/SQRT(A2)</f>
+        <v>-1</v>
+      </c>
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <f>D2^2</f>
+      <c r="F2">
+        <f>E2^2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7340,14 +8335,18 @@
         <v>0.3010299956639812</v>
       </c>
       <c r="D3">
+        <f t="shared" ref="D3:D11" si="2">-1/SQRT(A3)</f>
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="E3">
         <v>4.2699999999999996</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E11" si="2">D3^2</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F11" si="3">E3^2</f>
         <v>18.232899999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7360,14 +8359,18 @@
         <v>0.47712125471966244</v>
       </c>
       <c r="D4">
+        <f t="shared" si="2"/>
+        <v>-0.57735026918962584</v>
+      </c>
+      <c r="E4">
         <v>6.82</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
+      <c r="F4">
+        <f t="shared" si="3"/>
         <v>46.512400000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7380,14 +8383,18 @@
         <v>0.6020599913279624</v>
       </c>
       <c r="D5">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+      <c r="E5">
         <v>7.6</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
+      <c r="F5">
+        <f t="shared" si="3"/>
         <v>57.76</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7400,14 +8407,18 @@
         <v>0.69897000433601886</v>
       </c>
       <c r="D6">
+        <f t="shared" si="2"/>
+        <v>-0.44721359549995793</v>
+      </c>
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
+      <c r="F6">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7420,14 +8431,18 @@
         <v>0.77815125038364363</v>
       </c>
       <c r="D7">
+        <f t="shared" si="2"/>
+        <v>-0.40824829046386307</v>
+      </c>
+      <c r="E7">
         <v>11.13</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
+      <c r="F7">
+        <f t="shared" si="3"/>
         <v>123.87690000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7440,14 +8455,18 @@
         <v>0.84509804001425681</v>
       </c>
       <c r="D8">
+        <f t="shared" si="2"/>
+        <v>-0.3779644730092272</v>
+      </c>
+      <c r="E8">
         <v>12.04</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
+      <c r="F8">
+        <f t="shared" si="3"/>
         <v>144.96159999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7460,14 +8479,18 @@
         <v>0.90308998699194354</v>
       </c>
       <c r="D9">
+        <f t="shared" si="2"/>
+        <v>-0.35355339059327373</v>
+      </c>
+      <c r="E9">
         <v>12.88</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
+      <c r="F9">
+        <f t="shared" si="3"/>
         <v>165.89440000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7480,14 +8503,18 @@
         <v>0.95424250943932487</v>
       </c>
       <c r="D10">
+        <f t="shared" si="2"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="E10">
         <v>13.61</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
+      <c r="F10">
+        <f t="shared" si="3"/>
         <v>185.23209999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7500,10 +8527,14 @@
         <v>1</v>
       </c>
       <c r="D11">
+        <f t="shared" si="2"/>
+        <v>-0.31622776601683794</v>
+      </c>
+      <c r="E11">
         <v>14.25</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
+      <c r="F11">
+        <f t="shared" si="3"/>
         <v>203.0625</v>
       </c>
     </row>
